--- a/results/pvalue_SIDER_all_indication_AUROCperdrug.xlsx
+++ b/results/pvalue_SIDER_all_indication_AUROCperdrug.xlsx
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>19.006</t>
+          <t>14.354</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>18.688</t>
+          <t>13.954</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>19.478</t>
+          <t>14.47</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>17.488</t>
+          <t>12.41</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.018</t>
+          <t>0.005</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.866</t>
+          <t>5.634</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
